--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386445159</v>
+        <v>834735.0396448445</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386445159</v>
+        <v>834735.0396448445</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189808468.119554</v>
+        <v>48994786.91182864</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11078.91313574856</v>
+        <v>1203957.30193472</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20781.96277706217</v>
+        <v>2179974.508192481</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30485.01241837576</v>
+        <v>3155991.714450242</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40695.6274077624</v>
+        <v>4099537.187565287</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50906.24239714901</v>
+        <v>5043082.660680332</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60726.33803280766</v>
+        <v>6018801.375530217</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70546.43366846576</v>
+        <v>6994520.090380202</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80366.52930412386</v>
+        <v>7970238.805230187</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90390.78108473227</v>
+        <v>8912312.264220605</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100447.1055926134</v>
+        <v>9860768.195938302</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110503.4301004959</v>
+        <v>10809224.12765585</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120559.7546083796</v>
+        <v>11757680.0593734</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130616.0791162631</v>
+        <v>12706135.99109084</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140672.4036241443</v>
+        <v>13654591.92280855</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150728.7281320257</v>
+        <v>14603047.85452621</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>73</v>
@@ -27058,7 +27058,7 @@
         <v>2.298761739104521e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215.0000000001162</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
